--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCVSDocument.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCVSDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-24T12:54:27+00:00</t>
+    <t>2022-01-24T13:03:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCVSDocument.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCVSDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-24T13:03:50+00:00</t>
+    <t>2022-01-24T15:52:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCVSDocument.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCVSDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-24T15:52:44+00:00</t>
+    <t>2022-01-24T18:58:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCVSDocument.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCVSDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-24T18:58:51+00:00</t>
+    <t>2022-01-24T20:22:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCVSDocument.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCVSDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-24T20:22:18+00:00</t>
+    <t>2022-01-25T14:32:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
